--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H2">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I2">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J2">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N2">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O2">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P2">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q2">
-        <v>589.5351394306233</v>
+        <v>695.4415952584101</v>
       </c>
       <c r="R2">
-        <v>589.5351394306233</v>
+        <v>2781.76638103364</v>
       </c>
       <c r="S2">
-        <v>0.1110042106169106</v>
+        <v>0.1109240282110664</v>
       </c>
       <c r="T2">
-        <v>0.1110042106169106</v>
+        <v>0.0728779268246126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H3">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I3">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J3">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N3">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P3">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q3">
-        <v>3.141018368657652</v>
+        <v>5.098626219353333</v>
       </c>
       <c r="R3">
-        <v>3.141018368657652</v>
+        <v>30.59175731612</v>
       </c>
       <c r="S3">
-        <v>0.0005914257543372277</v>
+        <v>0.0008132389009361493</v>
       </c>
       <c r="T3">
-        <v>0.0005914257543372277</v>
+        <v>0.0008014561777441868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H4">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I4">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J4">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N4">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O4">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P4">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q4">
-        <v>214.0807122462287</v>
+        <v>2.520144239112501</v>
       </c>
       <c r="R4">
-        <v>214.0807122462287</v>
+        <v>15.120865434675</v>
       </c>
       <c r="S4">
-        <v>0.04030948942950186</v>
+        <v>0.0004019669697372632</v>
       </c>
       <c r="T4">
-        <v>0.04030948942950186</v>
+        <v>0.0003961430162455229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.0421721451437</v>
+        <v>46.1776315</v>
       </c>
       <c r="H5">
-        <v>71.0421721451437</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I5">
-        <v>0.2342732497070081</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J5">
-        <v>0.2342732497070081</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N5">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O5">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P5">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q5">
-        <v>909.2011359250959</v>
+        <v>229.5266254277664</v>
       </c>
       <c r="R5">
-        <v>909.2011359250959</v>
+        <v>1377.159752566598</v>
       </c>
       <c r="S5">
-        <v>0.1711944677001576</v>
+        <v>0.03660985774755113</v>
       </c>
       <c r="T5">
-        <v>0.1711944677001576</v>
+        <v>0.036079430809735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H6">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I6">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J6">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N6">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O6">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P6">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q6">
-        <v>4.844185321172365</v>
+        <v>1136.084125608833</v>
       </c>
       <c r="R6">
-        <v>4.844185321172365</v>
+        <v>6816.504753653</v>
       </c>
       <c r="S6">
-        <v>0.0009121169065140072</v>
+        <v>0.1812072048298364</v>
       </c>
       <c r="T6">
-        <v>0.0009121169065140072</v>
+        <v>0.1785817594257351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H7">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I7">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J7">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64741635977894</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N7">
-        <v>4.64741635977894</v>
+        <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.2653596395580149</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P7">
-        <v>0.2653596395580149</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q7">
-        <v>330.1625530615725</v>
+        <v>8.329194499888889</v>
       </c>
       <c r="R7">
-        <v>330.1625530615725</v>
+        <v>74.96275049899999</v>
       </c>
       <c r="S7">
-        <v>0.06216666510033649</v>
+        <v>0.001328519622611631</v>
       </c>
       <c r="T7">
-        <v>0.06216666510033649</v>
+        <v>0.001963906776171419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.2947522561475</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H8">
-        <v>56.2947522561475</v>
+        <v>226.309475</v>
       </c>
       <c r="I8">
-        <v>0.1856412065435436</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J8">
-        <v>0.1856412065435436</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.7980480955388</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N8">
-        <v>12.7980480955388</v>
+        <v>0.163725</v>
       </c>
       <c r="O8">
-        <v>0.7307469713860226</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P8">
-        <v>0.7307469713860226</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q8">
-        <v>720.462946900617</v>
+        <v>4.116946532708334</v>
       </c>
       <c r="R8">
-        <v>720.462946900617</v>
+        <v>37.052518794375</v>
       </c>
       <c r="S8">
-        <v>0.1356567494461416</v>
+        <v>0.000656659446963197</v>
       </c>
       <c r="T8">
-        <v>0.1356567494461416</v>
+        <v>0.0009707180199512912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.2947522561475</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H9">
-        <v>56.2947522561475</v>
+        <v>226.309475</v>
       </c>
       <c r="I9">
-        <v>0.1856412065435436</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J9">
-        <v>0.1856412065435436</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0681874606997571</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N9">
-        <v>0.0681874606997571</v>
+        <v>14.911546</v>
       </c>
       <c r="O9">
-        <v>0.003893389055962381</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P9">
-        <v>0.003893389055962381</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q9">
-        <v>3.83859620706862</v>
+        <v>374.958238522039</v>
       </c>
       <c r="R9">
-        <v>3.83859620706862</v>
+        <v>3374.62414669835</v>
       </c>
       <c r="S9">
-        <v>0.0007227734418922845</v>
+        <v>0.05980642876607893</v>
       </c>
       <c r="T9">
-        <v>0.0007227734418922845</v>
+        <v>0.08840987269832096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H10">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I10">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J10">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64741635977894</v>
+        <v>15.06014</v>
       </c>
       <c r="N10">
-        <v>4.64741635977894</v>
+        <v>30.12028</v>
       </c>
       <c r="O10">
-        <v>0.2653596395580149</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P10">
-        <v>0.2653596395580149</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q10">
-        <v>261.6251526049223</v>
+        <v>853.2779291848068</v>
       </c>
       <c r="R10">
-        <v>261.6251526049223</v>
+        <v>5119.667575108841</v>
       </c>
       <c r="S10">
-        <v>0.04926168365550972</v>
+        <v>0.1360991717120492</v>
       </c>
       <c r="T10">
-        <v>0.04926168365550972</v>
+        <v>0.1341272802234688</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.4204429588324</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H11">
-        <v>50.4204429588324</v>
+        <v>169.974103</v>
       </c>
       <c r="I11">
-        <v>0.1662697052604121</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J11">
-        <v>0.1662697052604121</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7980480955388</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N11">
-        <v>12.7980480955388</v>
+        <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.7307469713860226</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P11">
-        <v>0.7307469713860226</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q11">
-        <v>645.2832539855077</v>
+        <v>6.255802430857778</v>
       </c>
       <c r="R11">
-        <v>645.2832539855077</v>
+        <v>56.30222187772</v>
       </c>
       <c r="S11">
-        <v>0.1215010835522928</v>
+        <v>0.0009978103266392651</v>
       </c>
       <c r="T11">
-        <v>0.1215010835522928</v>
+        <v>0.001475030122602506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.4204429588324</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H12">
-        <v>50.4204429588324</v>
+        <v>169.974103</v>
       </c>
       <c r="I12">
-        <v>0.1662697052604121</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J12">
-        <v>0.1662697052604121</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0681874606997571</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N12">
-        <v>0.0681874606997571</v>
+        <v>0.163725</v>
       </c>
       <c r="O12">
-        <v>0.003893389055962381</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P12">
-        <v>0.003893389055962381</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q12">
-        <v>3.438041972719729</v>
+        <v>3.092112223741667</v>
       </c>
       <c r="R12">
-        <v>3.438041972719729</v>
+        <v>27.829010013675</v>
       </c>
       <c r="S12">
-        <v>0.0006473526507989793</v>
+        <v>0.000493196762857788</v>
       </c>
       <c r="T12">
-        <v>0.0006473526507989793</v>
+        <v>0.0007290765210212999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.4204429588324</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H13">
-        <v>50.4204429588324</v>
+        <v>169.974103</v>
       </c>
       <c r="I13">
-        <v>0.1662697052604121</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J13">
-        <v>0.1662697052604121</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.64741635977894</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N13">
-        <v>4.64741635977894</v>
+        <v>14.911546</v>
       </c>
       <c r="O13">
-        <v>0.2653596395580149</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P13">
-        <v>0.2653596395580149</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q13">
-        <v>234.3247914741786</v>
+        <v>281.6196284103598</v>
       </c>
       <c r="R13">
-        <v>234.3247914741786</v>
+        <v>2534.576655693239</v>
       </c>
       <c r="S13">
-        <v>0.04412126905732033</v>
+        <v>0.04491877365341272</v>
       </c>
       <c r="T13">
-        <v>0.04412126905732033</v>
+        <v>0.06640194277434162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.1124788605917</v>
+        <v>51.445151</v>
       </c>
       <c r="H14">
-        <v>33.1124788605917</v>
+        <v>154.335453</v>
       </c>
       <c r="I14">
-        <v>0.1091938463350561</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J14">
-        <v>0.1091938463350561</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N14">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O14">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P14">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q14">
-        <v>423.7750970203644</v>
+        <v>774.7711763811401</v>
       </c>
       <c r="R14">
-        <v>423.7750970203644</v>
+        <v>4648.62705828684</v>
       </c>
       <c r="S14">
-        <v>0.07979307250333302</v>
+        <v>0.1235772211670616</v>
       </c>
       <c r="T14">
-        <v>0.07979307250333302</v>
+        <v>0.1217867556738747</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.1124788605917</v>
+        <v>51.445151</v>
       </c>
       <c r="H15">
-        <v>33.1124788605917</v>
+        <v>154.335453</v>
       </c>
       <c r="I15">
-        <v>0.1091938463350561</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J15">
-        <v>0.1091938463350561</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N15">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P15">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q15">
-        <v>2.257855850978134</v>
+        <v>5.680230605746666</v>
       </c>
       <c r="R15">
-        <v>2.257855850978134</v>
+        <v>51.12207545171999</v>
       </c>
       <c r="S15">
-        <v>0.0004251341262993455</v>
+        <v>0.00090600571529387</v>
       </c>
       <c r="T15">
-        <v>0.0004251341262993455</v>
+        <v>0.001339318391111047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.1124788605917</v>
+        <v>51.445151</v>
       </c>
       <c r="H16">
-        <v>33.1124788605917</v>
+        <v>154.335453</v>
       </c>
       <c r="I16">
-        <v>0.1091938463350561</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J16">
-        <v>0.1091938463350561</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N16">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O16">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P16">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q16">
-        <v>153.8874759695482</v>
+        <v>2.807619115825001</v>
       </c>
       <c r="R16">
-        <v>153.8874759695482</v>
+        <v>25.268572042425</v>
       </c>
       <c r="S16">
-        <v>0.02897563970542376</v>
+        <v>0.0004478196647038066</v>
       </c>
       <c r="T16">
-        <v>0.02897563970542376</v>
+        <v>0.0006619970522420486</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>46.3106134503266</v>
+        <v>51.445151</v>
       </c>
       <c r="H17">
-        <v>46.3106134503266</v>
+        <v>154.335453</v>
       </c>
       <c r="I17">
-        <v>0.1527168663532303</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J17">
-        <v>0.1527168663532303</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N17">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O17">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P17">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q17">
-        <v>592.6854582711859</v>
+        <v>255.7089118711487</v>
       </c>
       <c r="R17">
-        <v>592.6854582711859</v>
+        <v>2301.380206840338</v>
       </c>
       <c r="S17">
-        <v>0.111597387567187</v>
+        <v>0.04078597361389762</v>
       </c>
       <c r="T17">
-        <v>0.111597387567187</v>
+        <v>0.06029256067412864</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.3106134503266</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H18">
-        <v>46.3106134503266</v>
+        <v>101.979134</v>
       </c>
       <c r="I18">
-        <v>0.1527168663532303</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J18">
-        <v>0.1527168663532303</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N18">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O18">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P18">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q18">
-        <v>3.157803134625788</v>
+        <v>511.9400117062534</v>
       </c>
       <c r="R18">
-        <v>3.157803134625788</v>
+        <v>3071.64007023752</v>
       </c>
       <c r="S18">
-        <v>0.0005945861761205365</v>
+        <v>0.08165523702932603</v>
       </c>
       <c r="T18">
-        <v>0.0005945861761205365</v>
+        <v>0.08047216394467267</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>33.99304466666667</v>
+      </c>
+      <c r="H19">
+        <v>101.979134</v>
+      </c>
+      <c r="I19">
+        <v>0.1094996507709406</v>
+      </c>
+      <c r="J19">
+        <v>0.1216336431542751</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.33124</v>
+      </c>
+      <c r="O19">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P19">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q19">
+        <v>3.753285371795556</v>
+      </c>
+      <c r="R19">
+        <v>33.77956834616</v>
+      </c>
+      <c r="S19">
+        <v>0.0005986549198434621</v>
+      </c>
+      <c r="T19">
+        <v>0.0008849718390743171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>33.99304466666667</v>
+      </c>
+      <c r="H20">
+        <v>101.979134</v>
+      </c>
+      <c r="I20">
+        <v>0.1094996507709406</v>
+      </c>
+      <c r="J20">
+        <v>0.1216336431542751</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.163725</v>
+      </c>
+      <c r="O20">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P20">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q20">
+        <v>1.855170412683334</v>
+      </c>
+      <c r="R20">
+        <v>16.69653371415</v>
+      </c>
+      <c r="S20">
+        <v>0.0002959025985731519</v>
+      </c>
+      <c r="T20">
+        <v>0.0004374230598733324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>33.99304466666667</v>
+      </c>
+      <c r="H21">
+        <v>101.979134</v>
+      </c>
+      <c r="I21">
+        <v>0.1094996507709406</v>
+      </c>
+      <c r="J21">
+        <v>0.1216336431542751</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N21">
+        <v>14.911546</v>
+      </c>
+      <c r="O21">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P21">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q21">
+        <v>168.9629497423516</v>
+      </c>
+      <c r="R21">
+        <v>1520.666547681164</v>
+      </c>
+      <c r="S21">
+        <v>0.02694985622319798</v>
+      </c>
+      <c r="T21">
+        <v>0.03983908431065476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>46.729401</v>
+      </c>
+      <c r="H22">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J22">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.06014</v>
+      </c>
+      <c r="N22">
+        <v>30.12028</v>
+      </c>
+      <c r="O22">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P22">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q22">
+        <v>703.75132117614</v>
+      </c>
+      <c r="R22">
+        <v>2815.00528470456</v>
+      </c>
+      <c r="S22">
+        <v>0.1122494425642041</v>
+      </c>
+      <c r="T22">
+        <v>0.07374873409512088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>46.729401</v>
+      </c>
+      <c r="H23">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J23">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.33124</v>
+      </c>
+      <c r="O23">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P23">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q23">
+        <v>5.159548929079999</v>
+      </c>
+      <c r="R23">
+        <v>30.95729357447999</v>
+      </c>
+      <c r="S23">
+        <v>0.0008229561689547588</v>
+      </c>
+      <c r="T23">
+        <v>0.0008110326557942966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>46.729401</v>
+      </c>
+      <c r="H24">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J24">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.163725</v>
+      </c>
+      <c r="O24">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P24">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q24">
+        <v>2.550257059575</v>
+      </c>
+      <c r="R24">
+        <v>15.30154235745</v>
+      </c>
+      <c r="S24">
+        <v>0.0004067700119614718</v>
+      </c>
+      <c r="T24">
+        <v>0.0004008764689346735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>46.3106134503266</v>
-      </c>
-      <c r="H19">
-        <v>46.3106134503266</v>
-      </c>
-      <c r="I19">
-        <v>0.1527168663532303</v>
-      </c>
-      <c r="J19">
-        <v>0.1527168663532303</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="N19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="O19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="P19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="Q19">
-        <v>215.2247025804465</v>
-      </c>
-      <c r="R19">
-        <v>215.2247025804465</v>
-      </c>
-      <c r="S19">
-        <v>0.04052489260992273</v>
-      </c>
-      <c r="T19">
-        <v>0.04052489260992273</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>46.729401</v>
+      </c>
+      <c r="H25">
+        <v>93.45880199999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1505264721183623</v>
+      </c>
+      <c r="J25">
+        <v>0.1114711816644182</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.911546</v>
+      </c>
+      <c r="O25">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P25">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q25">
+        <v>232.269204187982</v>
+      </c>
+      <c r="R25">
+        <v>1393.615225127892</v>
+      </c>
+      <c r="S25">
+        <v>0.03704730337324194</v>
+      </c>
+      <c r="T25">
+        <v>0.03651053844456836</v>
       </c>
     </row>
   </sheetData>
